--- a/1.암임상라이브러리/2.유방암/2.유방암통합테이블컬럼 정의서.xlsx
+++ b/1.암임상라이브러리/2.유방암/2.유방암통합테이블컬럼 정의서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12250" tabRatio="672" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12050" tabRatio="672" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개정이력" sheetId="34" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17974" uniqueCount="2195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17974" uniqueCount="2192">
   <si>
     <t>대분류</t>
   </si>
@@ -7163,23 +7163,11 @@
     <t>면역병리 검사결과 값 단위 코드</t>
   </si>
   <si>
-    <t>RD_GY</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>RD_TOTL_GY</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR(100)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>값VC100</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>수VC100</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -8161,7 +8149,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8812,10 +8800,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
       <c r="D29" s="34" t="s">
         <v>1956</v>
@@ -8824,10 +8812,10 @@
         <v>2168</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
     </row>
   </sheetData>
@@ -8849,7 +8837,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -9470,11 +9458,11 @@
         <v>701</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="42" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="M12" s="75" t="s">
         <v>92</v>
@@ -9682,11 +9670,11 @@
         <v>103</v>
       </c>
       <c r="J16" s="42" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="K16" s="29"/>
       <c r="L16" s="76" t="s">
-        <v>2190</v>
+        <v>1190</v>
       </c>
       <c r="M16" s="74" t="s">
         <v>105</v>
@@ -10050,11 +10038,11 @@
         <v>703</v>
       </c>
       <c r="J23" s="42" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="K23" s="29"/>
       <c r="L23" s="42" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="M23" s="75" t="s">
         <v>116</v>
@@ -35368,9 +35356,9 @@
   </sheetPr>
   <dimension ref="A1:AJ500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -36648,7 +36636,7 @@
         <v>1</v>
       </c>
       <c r="T12" s="25" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="U12" s="20" t="s">
         <v>999</v>
@@ -36659,7 +36647,7 @@
       </c>
       <c r="W12" s="10"/>
       <c r="X12" s="25" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="Y12" s="20" t="s">
         <v>1948</v>
@@ -37112,7 +37100,7 @@
         <v>1</v>
       </c>
       <c r="T16" s="25" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="U16" s="20" t="s">
         <v>79</v>
@@ -37123,7 +37111,7 @@
       </c>
       <c r="W16" s="10"/>
       <c r="X16" s="53" t="s">
-        <v>2190</v>
+        <v>1190</v>
       </c>
       <c r="Y16" s="95" t="s">
         <v>104</v>
@@ -37921,7 +37909,7 @@
         <v>1</v>
       </c>
       <c r="T23" s="25" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="U23" s="20" t="s">
         <v>999</v>
@@ -37932,7 +37920,7 @@
       </c>
       <c r="W23" s="10"/>
       <c r="X23" s="25" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="Y23" s="20" t="s">
         <v>1948</v>
@@ -90259,7 +90247,7 @@
         <v>1</v>
       </c>
       <c r="Q474" s="20" t="s">
-        <v>2186</v>
+        <v>1187</v>
       </c>
       <c r="R474" s="20" t="s">
         <v>648</v>
@@ -90493,7 +90481,7 @@
         <v>1</v>
       </c>
       <c r="Q476" s="20" t="s">
-        <v>2187</v>
+        <v>1904</v>
       </c>
       <c r="R476" s="20" t="s">
         <v>2154</v>
